--- a/config/accounts_cookies.xlsx
+++ b/config/accounts_cookies.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -50,21 +50,6 @@
   </si>
   <si>
     <t>invalid_timestamp</t>
-  </si>
-  <si>
-    <t>程序员阿江-relakkes</t>
-  </si>
-  <si>
-    <t>xsecappid=xhs-pc-web;acw_tc=0321cf6f78dafd0b57dc597607160f491399dec4f3f97d93f55601f4306f5ef8;websectiga=f3d8eaee8a8c63016320d94a1bd00562d516a5417bc43a032a80cbf70f07d5c0;webBuild=4.28.6;sec_poison_id=e5886e16-399e-4fc6-9dcc-bf1e349011d7;web_session=0400698e2cfed1566705a7d083344bb311850f;gid=yjyqj482f4d2yjyqj482Kqh0dY4xy1ykVW1lC00Iq8W3xUq80f7y2y8882JKYKW8f22jfqJD;a1=191394056e84h1l1gj7lon307ihadu15e3xp1vaaa30000526867;abRequestId=49d6319f26fb369c2f23a7d9997038b3;unread={%22ub%22:%22669a0efc0000000025004340%22%2C%22ue%22:%2266ba149c000000000502168e%22%2C%22uc%22:23};webId=49d6319f26fb369c2f23a7d9997038b3</t>
-  </si>
-  <si>
-    <t>程序员阿江</t>
-  </si>
-  <si>
-    <t>XSRF-TOKEN=e560ed;SUBP=0033WrSXqPxfM725Ws9jqgMF55529P9D9W5iy.kOBdsdRlzPYG75biOr5JpX5K-hUgL.FoqXe0q4S0BfSh22dJLoIEXLxKMLBKnL12zLxK-LB.2L12qLxK-L1K2L1KnLxK.L1KnLB.qLxKqLBo2L1-qt;MLOGIN=1;SUB=_2A25LvWm5DeRhGeBK6FQY9yrJzz2IHXVos-NxrDV6PUJbktAbLWzMkW1NR4B4iYHW5piwD-xB6QJCqEvEkuBgAKqG;ALF=1725998825;_T_WM=12860571956;M_WEIBOCN_PARAMS=oid%3D4941917303343132%26luicode%3D20000061%26lfid%3D4941917303343132%26uicode%3D20000174;mweibo_short_token=d43e50c251;SCF=Asd5GuRFtyeygfpiH9e5iq8MoYQN0ZSqRudd9HuV4jRsAf9dlcMXzHn1eI7XiE9Mg9wATL_iJqh3Cg90WIdh-LE.;SSOLoginState=1723406825;WEIBOCN_FROM=1110006030</t>
-  </si>
-  <si>
-    <t>BAIDUID=00E51832EC6DAA0D10E1C0699C5E6670:FG=1;BDUSS_BFESS=Y0dVdULUMxfjJobTdZRm5DbXZ4ZVk4S0xYOFZ2VERDU3FrdHk1WHdmZlF0dUJtRVFBQUFBJCQAAAAAAAAAAAEAAAD3qAxbv7nRubDJsMnO8TY2NgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANApuWbQKblmeU;BAIDU_WISE_UID=wapp_1722936890424_719;ZFY=LkoVwb6lw10D5vmWebxsbstfcfqonf29jlVAPo05Rzs:C;st_data=777883d4d28704b995d823a4dc8d2bd14280b5d35867bfceb020d1ffcce805a7ddd42dda46a941579073b22f3f890be3ab3054579aa4eb9a2d58e505980224e86e657a662d942ea6ae4a170a197062c584de8e68450840f1d01d0562532303ad6637f641c4b82dca01df4dac85c7e2ee951608ccdde284322ea2a04d3999892b338409eb48276350acd2255841c855a1;XFI=c40afa30-5826-11ef-942f-ef59a39522f5;ab_sr=1.0.1_MWZlZmUzMWFmMTZjMmNhNjMyY2NiYjViODQ0ZDZhNjIwMTlmYjRjOTY3ZjFjZTU4ZjBhYzc3MjMyOTYyMTYwODNlMGQ1ZTA1OGNmMTg2NzlkMDlkM2FhYjYyZjI4ZDc1NDc4OTU4ODA4Y2Q3YTNkMTA5MWZhY2NlMzQ2YTY1ODkyYmQxNGRlNzQ4NTgyM2I3MDk5YTJlZWEzNmU2MzY3ZTkwNDZlNjM2YzE5ODRjMDE0M2NhNDQxM2VlMDIxYzk1;HMACCOUNT=5A930314B196254B;Hm_lpvt_292b2e1608b0823c1cb6beef7243ef34=1723410906;BAIDUID_BFESS=00E51832EC6DAA0D10E1C0699C5E6670:FG=1;BA_HECTOR=2l2l85042g0h25a52580al2h1uam6d1jbiaeq1u;Hm_lvt_292b2e1608b0823c1cb6beef7243ef34=1722936890,1722965432,1723084002,1723409996;BIDUPSID=1AAE04FC469E15454D6CCFB8B52007D9;arialoadData=false;BDUSS=Y0dVdULUMxfjJobTdZRm5DbXZ4ZVk4S0xYOFZ2VERDU3FrdHk1WHdmZlF0dUJtRVFBQUFBJCQAAAAAAAAAAAEAAAD3qAxbv7nRubDJsMnO8TY2NgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANApuWbQKblmeU;H_PS_PSSID=60525_60567_60555_60575;H_WISE_SIDS=60525_60567_60555_60575;H_WISE_SIDS_BFESS=60468_60492_60498;ppfuid=FOCoIC3q5fKa8fgJnwzbE0LGziLN3VHbX8wfShDP6RCsfXQp/69CStRUAcn/QmhIlFDxPrAc/s5tJmCocrihdwitHd04Lvs3Nfz26Zt2holplnIKVacidp8Sue4dMTyfg65BJnOFhn1HthtSiwtygiD7piS4vjG/W9dLb1VAdqMruOyYxu8xgrK49GD5UPdKO0V6uxgO+hV7+7wZFfXG0MSpuMmh7GsZ4C7fF/kTgmvq/k11nkKpEvJu9aKoOwiuNqiSlcS58Ly9mjkdbS+gNuLgcrFRyrB1NUhD+vuUH5U1v2iwj13daM+9aWJ5GJCQu/SUbF5jV5AUyz/jBiIgKVObaDCHgWJZH3ZrTGYHmi7XJB9z3y2o8Kqxep5XBCsugNOW5C73e/g54kuY4PKISyhaqK8f3Sx1OHsxiI7qx93Xsr4bwXNFrQ+YYQ0Tw2MHnvNXIEW2pwj4BXINSNFrPLvGO3ZF2O2NmB7yI+C6qlWIGhYqrYfhHGZqJNx2uWmglAIQEZY21OyYDgpfKN3zxRn6ONqHK83MkBENWBMWSAwea/+1VSNUTGfIG+NKu2s+g28sOzjnLUnUE9KukMAMTPZYfT79sbFYuntY0Ry6GX3OsRAJVdXPXKlPRQiighN2h3utZNfUsAGL2WWa3tubT9td9rGfOenGkLOGCRladXTg1IKPDQ9z3/DiqHtAIbmyu3emEg6nEYu6lQuvYr6/UJpAq7e+CnVRC2DzwICP6cu9A5mNm34ZPuoRV+zY3Fkh4CSTaFhup/IXt/O4gVx5wATfF6Y9i38UNJyUL6yiYP7JPMphcpJKcuvLpFmTPHJpdRGSluqM4FuAgHCvdnqfGnnbe3vsHq3LuF7pombT65cVprejPaivGVaWugm+VA1kVl5OE/aBXOg67P9UlCyJKVyutwgoMp5Aa/ZkjblrEvPdXZFhAgvw25kAwV0TwSXShFiLc69i+L04YAPBbGyf0a8/4gXL7D1yhOWYXNZvRaSNIhIuBVe4+Jop0oczpupZGEQw3OLo5dsSUeQDd6vDni1evF/M7yvmL+FUAwPmWZFbvNq69O2z3wBW+ogxJUDy9IDhObhno4D7MBZG4B+pNlhGWn0jikQ5zzmAASlnix3V2XtmwNAzvtRZUfKm/j5ohXGVaLqOQwr5UIY0Yb6SLY1Idv8jX8h4522dQP4UUSOwRVQ7btSmic48edZ0zdfs3/Nuh02ISWqx07kkZMfmdnyOb+SUndpETWRO7Om0KwOcjCN9Un1A4MQ67HepT7VF;PSTM=1716715085;RT="z=1&amp;dm=baidu.com&amp;si=6be2351e-99bb-4c31-93de-9afb4feb7ba0&amp;ss=lzq1tauw&amp;sl=e&amp;tt=a75&amp;bcn=https%3A%2F%2Ffclog.baidu.com%2Flog%2Fweirwood%3Ftype%3Dperf&amp;ld=jl59";st_key_id=17;st_sign=d5116d48;STOKEN=ee29bbe2ca502da753944a165f82728c63fd98e06ccf5d7785384544bccffc71;USER_JUMP=-1;wise_device=0;XFCS=2F82A7D88A586DD4A205255196DF67BBE3D946D8EB92022616E57658E0BCF9AB;XFT=XiI5BvZEZHYjAH8NVjQ6LxeL6rvPe6ZVBjyMNrodRlY=</t>
   </si>
 </sst>
 </file>
@@ -1209,13 +1194,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.38461538461538" customWidth="1"/>
     <col min="2" max="2" width="20.1538461538462" customWidth="1"/>
@@ -1245,17 +1230,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1265,13 +1239,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1291,17 +1265,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1313,13 +1276,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1339,17 +1302,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
